--- a/OXY.xlsx
+++ b/OXY.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Oxyjen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{68526283-8340-4C8A-8AE9-17D049E1A2CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6631B035-CB08-485D-8252-B9A8EEFA391F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{21001931-EC7D-493B-B3E9-404FD59120B8}"/>
+    <workbookView xWindow="3396" yWindow="1428" windowWidth="17280" windowHeight="8964" xr2:uid="{21001931-EC7D-493B-B3E9-404FD59120B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -154,7 +154,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,7 +175,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -207,13 +213,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -530,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21A485F1-4E30-470B-B850-596A5482341E}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -547,74 +555,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -675,34 +685,38 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="2" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="6" t="s">
         <v>28</v>
       </c>
+      <c r="B21" s="6"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="7" t="s">
         <v>17</v>
       </c>
     </row>
